--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_7_1.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_7_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1992704.096557737</v>
+        <v>-1967976.106662469</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17475878.18025491</v>
+        <v>16811344.37236569</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484447</v>
+        <v>492028.9342484446</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11312959.88281294</v>
+        <v>11340051.68151792</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>320.1635926948658</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>101.6005593405761</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>34.00319918701682</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>404.2032624633431</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -823,19 +823,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>135.4413049667006</v>
+        <v>239.7424320503879</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,10 +896,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
@@ -908,13 +908,13 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>302.9921200626787</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>131.6282066608655</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1072,7 +1072,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>142.8969612148869</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>124.2978721248575</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
@@ -1145,13 +1145,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>302.5794985835475</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>146.5350439027424</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1291,22 +1291,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>96.35618109313191</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>39.57637241135509</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1379,7 +1379,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
@@ -1388,7 +1388,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,16 +1421,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>227.4222017009427</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655127</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1528,7 +1528,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
@@ -1540,10 +1540,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1588,10 +1588,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>67.37282263167542</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>165.2047610440497</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1616,7 +1616,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948845</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>111.5309907175798</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>65.54144271872141</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791320806</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1904,7 +1904,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.8069000430772</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
@@ -2011,16 +2011,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
@@ -2059,10 +2059,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>159.726963235198</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>67.37282263167496</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -2090,7 +2090,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948854</v>
       </c>
       <c r="G20" t="n">
         <v>397.3838530629687</v>
@@ -2245,7 +2245,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>144.6367272133236</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
@@ -2254,7 +2254,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -2287,13 +2287,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>46.22530271040065</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2305,7 +2305,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2318,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884113</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
         <v>431.5506869772999</v>
@@ -2488,7 +2488,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="T25" t="n">
-        <v>41.48733421943322</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2567,7 +2567,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629699</v>
       </c>
       <c r="H26" t="n">
         <v>286.2388530112159</v>
@@ -2852,7 +2852,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430779</v>
       </c>
       <c r="X29" t="n">
         <v>414.9510387864824</v>
@@ -2962,7 +2962,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>160.788496495006</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3029,22 +3029,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>417.5253377496635</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869773002</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>415.6551005337519</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>407.353044956137</v>
       </c>
       <c r="G32" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H32" t="n">
-        <v>286.2388530112159</v>
+        <v>270.0031426724685</v>
       </c>
       <c r="I32" t="n">
         <v>0.4126214791313976</v>
@@ -3089,13 +3089,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>384.5711897043296</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>398.715328447735</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>387.9675521245957</v>
       </c>
     </row>
     <row r="33">
@@ -3202,10 +3202,10 @@
         <v>147.6996518856832</v>
       </c>
       <c r="H34" t="n">
-        <v>122.2674422277818</v>
+        <v>122.2674422277819</v>
       </c>
       <c r="I34" t="n">
-        <v>71.53763939432403</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>4.967932742934458</v>
+        <v>4.967932742934472</v>
       </c>
       <c r="S34" t="n">
-        <v>141.4132446762359</v>
+        <v>141.4132446762356</v>
       </c>
       <c r="T34" t="n">
         <v>227.1849416185819</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.967932742934465</v>
+        <v>4.967932742934472</v>
       </c>
       <c r="S37" t="n">
         <v>141.4132446762359</v>
@@ -3481,7 +3481,7 @@
         <v>259.4129604006783</v>
       </c>
       <c r="V37" t="n">
-        <v>267.8502427095259</v>
+        <v>267.8502427095265</v>
       </c>
       <c r="W37" t="n">
         <v>253.070430030824</v>
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>405.8008644413113</v>
+        <v>405.8008644413114</v>
       </c>
       <c r="C38" t="n">
-        <v>417.5253377496635</v>
+        <v>417.5253377496636</v>
       </c>
       <c r="D38" t="n">
-        <v>415.3149766385525</v>
+        <v>415.3149766385526</v>
       </c>
       <c r="E38" t="n">
         <v>413.2012870545404</v>
@@ -3518,7 +3518,7 @@
         <v>381.1481427242214</v>
       </c>
       <c r="H38" t="n">
-        <v>270.0031426724685</v>
+        <v>270.0031426724686</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925399</v>
+        <v>66.57964473925405</v>
       </c>
       <c r="T38" t="n">
         <v>201.6308445169444</v>
       </c>
       <c r="U38" t="n">
-        <v>240.3943693174059</v>
+        <v>240.394369317406</v>
       </c>
       <c r="V38" t="n">
         <v>342.7550702267644</v>
       </c>
       <c r="W38" t="n">
-        <v>384.5711897043296</v>
+        <v>384.5711897043297</v>
       </c>
       <c r="X38" t="n">
-        <v>398.715328447735</v>
+        <v>398.7153284477351</v>
       </c>
       <c r="Y38" t="n">
-        <v>387.9675521245957</v>
+        <v>387.9675521245958</v>
       </c>
     </row>
     <row r="39">
@@ -3661,25 +3661,25 @@
         <v>173.6647221930499</v>
       </c>
       <c r="C40" t="n">
-        <v>154.6003840628599</v>
+        <v>154.60038406286</v>
       </c>
       <c r="D40" t="n">
         <v>147.9835025317452</v>
       </c>
       <c r="E40" t="n">
-        <v>151.8247133730227</v>
+        <v>151.8247133730228</v>
       </c>
       <c r="F40" t="n">
         <v>158.704273159114</v>
       </c>
       <c r="G40" t="n">
-        <v>147.6996518856832</v>
+        <v>147.6996518856833</v>
       </c>
       <c r="H40" t="n">
         <v>122.2674422277819</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432405</v>
+        <v>71.5376393943241</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934465</v>
+        <v>4.967932742934529</v>
       </c>
       <c r="S40" t="n">
-        <v>141.4132446762359</v>
+        <v>141.413244676236</v>
       </c>
       <c r="T40" t="n">
-        <v>227.1849416185819</v>
+        <v>227.184941618582</v>
       </c>
       <c r="U40" t="n">
-        <v>259.4129604006783</v>
+        <v>259.4129604006784</v>
       </c>
       <c r="V40" t="n">
         <v>267.8502427095265</v>
       </c>
       <c r="W40" t="n">
-        <v>253.070430030824</v>
+        <v>253.0704300308241</v>
       </c>
       <c r="X40" t="n">
         <v>226.7021267811743</v>
       </c>
       <c r="Y40" t="n">
-        <v>208.9097636402854</v>
+        <v>208.9097636402855</v>
       </c>
     </row>
     <row r="41">
@@ -3806,7 +3806,7 @@
         <v>398.715328447735</v>
       </c>
       <c r="Y41" t="n">
-        <v>387.9675521245957</v>
+        <v>387.9675521245964</v>
       </c>
     </row>
     <row r="42">
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934465</v>
+        <v>4.967932742934472</v>
       </c>
       <c r="S43" t="n">
         <v>141.4132446762359</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925399</v>
+        <v>66.57964473925401</v>
       </c>
       <c r="T44" t="n">
         <v>201.6308445169444</v>
@@ -4135,25 +4135,25 @@
         <v>173.6647221930499</v>
       </c>
       <c r="C46" t="n">
-        <v>154.6003840628599</v>
+        <v>154.60038406286</v>
       </c>
       <c r="D46" t="n">
         <v>147.9835025317452</v>
       </c>
       <c r="E46" t="n">
-        <v>151.8247133730227</v>
+        <v>151.8247133730228</v>
       </c>
       <c r="F46" t="n">
         <v>158.704273159114</v>
       </c>
       <c r="G46" t="n">
-        <v>147.6996518856832</v>
+        <v>147.6996518856833</v>
       </c>
       <c r="H46" t="n">
         <v>122.2674422277819</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432406</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934472</v>
+        <v>4.96793274293449</v>
       </c>
       <c r="S46" t="n">
-        <v>141.4132446762359</v>
+        <v>141.413244676236</v>
       </c>
       <c r="T46" t="n">
         <v>227.1849416185819</v>
@@ -4201,7 +4201,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y46" t="n">
-        <v>208.9097636402854</v>
+        <v>208.9097636402855</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>861.7826853466003</v>
+        <v>750.9412527491843</v>
       </c>
       <c r="C2" t="n">
-        <v>861.7826853466003</v>
+        <v>750.9412527491843</v>
       </c>
       <c r="D2" t="n">
-        <v>538.385116967948</v>
+        <v>750.9412527491843</v>
       </c>
       <c r="E2" t="n">
-        <v>435.7582893512044</v>
+        <v>750.9412527491843</v>
       </c>
       <c r="F2" t="n">
-        <v>435.7582893512044</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4334,46 +4334,46 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M2" t="n">
-        <v>33.94366860160834</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N2" t="n">
-        <v>437.0247332457074</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="O2" t="n">
-        <v>857.0776321906106</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="P2" t="n">
-        <v>1277.130531135514</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="Q2" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1579.184890418783</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1579.184890418783</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1579.184890418783</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>1174.329435829816</v>
       </c>
       <c r="X2" t="n">
-        <v>1696.368379531855</v>
+        <v>1159.227376449531</v>
       </c>
       <c r="Y2" t="n">
-        <v>1288.082255831508</v>
+        <v>750.9412527491843</v>
       </c>
     </row>
     <row r="3">
@@ -4407,25 +4407,25 @@
         <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>319.8519551513677</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>319.8519551513677</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>319.8519551513677</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M3" t="n">
-        <v>739.9048540962709</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N3" t="n">
+        <v>804.6185656731816</v>
+      </c>
+      <c r="O3" t="n">
+        <v>804.6185656731816</v>
+      </c>
+      <c r="P3" t="n">
         <v>1159.957753041174</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1580.010651986078</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1580.010651986078</v>
       </c>
       <c r="Q3" t="n">
         <v>1580.010651986078</v>
@@ -4462,49 +4462,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>682.043550975749</v>
+        <v>637.7503761804292</v>
       </c>
       <c r="C4" t="n">
-        <v>509.4818394589739</v>
+        <v>465.1886646636541</v>
       </c>
       <c r="D4" t="n">
-        <v>343.6038466604966</v>
+        <v>299.3106718651768</v>
       </c>
       <c r="E4" t="n">
-        <v>173.8458429112338</v>
+        <v>299.3106718651768</v>
       </c>
       <c r="F4" t="n">
-        <v>173.8458429112338</v>
+        <v>122.603617826933</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8458429112338</v>
+        <v>122.603617826933</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>67.00315850392299</v>
       </c>
       <c r="K4" t="n">
-        <v>308.7021231727439</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="L4" t="n">
-        <v>726.9120049407049</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="M4" t="n">
-        <v>726.9120049407049</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="N4" t="n">
-        <v>930.0072868842942</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O4" t="n">
-        <v>1349.676536110076</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4513,25 +4513,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T4" t="n">
-        <v>1516.524240083786</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="U4" t="n">
-        <v>1238.091239336891</v>
+        <v>1397.332608038895</v>
       </c>
       <c r="V4" t="n">
-        <v>1101.281840380628</v>
+        <v>1155.168535260725</v>
       </c>
       <c r="W4" t="n">
-        <v>1101.281840380628</v>
+        <v>883.1421308470167</v>
       </c>
       <c r="X4" t="n">
-        <v>1101.281840380628</v>
+        <v>637.7503761804292</v>
       </c>
       <c r="Y4" t="n">
-        <v>873.8621696947362</v>
+        <v>637.7503761804292</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1250.721030006719</v>
+        <v>864.2291487297266</v>
       </c>
       <c r="C5" t="n">
-        <v>822.1393557439874</v>
+        <v>830.1270799535539</v>
       </c>
       <c r="D5" t="n">
-        <v>393.5576814812557</v>
+        <v>394.2172951279984</v>
       </c>
       <c r="E5" t="n">
-        <v>363.8233406799549</v>
+        <v>364.4829543266976</v>
       </c>
       <c r="F5" t="n">
-        <v>339.9963151295667</v>
+        <v>340.6559287763094</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>340.6559287763094</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>51.52577421952564</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>51.10898484666564</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>51.10898484666564</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>683.5826723241529</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>1316.05635980164</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>1948.530047279128</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>1948.530047279128</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>2555.449242333282</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>2555.449242333282</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2555.449242333282</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2555.449242333282</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2471.797368517119</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2251.730141390158</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2251.730141390158</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2118.772356884233</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1713.916902295266</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>1698.814842914981</v>
       </c>
       <c r="Y5" t="n">
-        <v>1677.020600491627</v>
+        <v>1290.528719214634</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>557.2807298379585</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.8242686746007</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.733979821154</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>261.6135651481077</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>178.2297267642693</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.84463703045317</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>51.10898484666564</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>77.17265800712323</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.7309829733355</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1034.204670450823</v>
       </c>
       <c r="L6" t="n">
-        <v>1224.671464618085</v>
+        <v>1034.204670450823</v>
       </c>
       <c r="M6" t="n">
-        <v>1580.010651986078</v>
+        <v>1034.204670450823</v>
       </c>
       <c r="N6" t="n">
-        <v>1580.010651986078</v>
+        <v>1034.204670450823</v>
       </c>
       <c r="O6" t="n">
-        <v>1580.010651986078</v>
+        <v>1056.437029599059</v>
       </c>
       <c r="P6" t="n">
-        <v>1580.010651986078</v>
+        <v>1056.437029599059</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1597.175968231135</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1714.348746325475</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.893308773858</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.714665104459</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1344.378118104428</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1145.260600166427</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.9378458996209</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>805.0704101385008</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>678.5846309177216</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1113.00182921349</v>
+        <v>1041.507196233222</v>
       </c>
       <c r="C7" t="n">
-        <v>940.4401176967148</v>
+        <v>868.9454847164474</v>
       </c>
       <c r="D7" t="n">
-        <v>774.5621248982375</v>
+        <v>703.0674919179701</v>
       </c>
       <c r="E7" t="n">
-        <v>604.8041211489747</v>
+        <v>533.3094881687073</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>356.6024341304635</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>191.0111591562911</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>51.10898484666564</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>51.10898484666564</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>137.6886700113555</v>
       </c>
       <c r="K7" t="n">
-        <v>308.7021231727439</v>
+        <v>412.4471245824911</v>
       </c>
       <c r="L7" t="n">
-        <v>726.9120049407049</v>
+        <v>718.3376539342692</v>
       </c>
       <c r="M7" t="n">
-        <v>1146.964903885608</v>
+        <v>1177.821521115182</v>
       </c>
       <c r="N7" t="n">
-        <v>1567.017802830512</v>
+        <v>1620.080324272827</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2039.749573498608</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2387.25646746895</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2555.449242333282</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2534.031421038654</v>
       </c>
       <c r="S7" t="n">
-        <v>1675.765608785789</v>
+        <v>2374.790052336651</v>
       </c>
       <c r="T7" t="n">
-        <v>1675.765608785789</v>
+        <v>2128.910605915106</v>
       </c>
       <c r="U7" t="n">
-        <v>1675.765608785789</v>
+        <v>1850.477605168211</v>
       </c>
       <c r="V7" t="n">
-        <v>1675.765608785789</v>
+        <v>1706.137240304689</v>
       </c>
       <c r="W7" t="n">
-        <v>1675.765608785789</v>
+        <v>1706.137240304689</v>
       </c>
       <c r="X7" t="n">
-        <v>1430.373854119202</v>
+        <v>1460.745485638101</v>
       </c>
       <c r="Y7" t="n">
-        <v>1304.820447932477</v>
+        <v>1233.32581495221</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1654.761434047123</v>
+        <v>1671.54282645597</v>
       </c>
       <c r="C8" t="n">
-        <v>1226.179759784392</v>
+        <v>1637.440757679797</v>
       </c>
       <c r="D8" t="n">
-        <v>797.5980855216599</v>
+        <v>1201.530972854241</v>
       </c>
       <c r="E8" t="n">
-        <v>767.8637447203591</v>
+        <v>1171.796632052941</v>
       </c>
       <c r="F8" t="n">
-        <v>339.9963151295669</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G8" t="n">
-        <v>34.36045797446834</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H8" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>687.9235674375537</v>
+        <v>518.3865980530361</v>
       </c>
       <c r="L8" t="n">
-        <v>687.9235674375537</v>
+        <v>1179.226652594814</v>
       </c>
       <c r="M8" t="n">
-        <v>687.9235674375537</v>
+        <v>1840.066707136593</v>
       </c>
       <c r="N8" t="n">
-        <v>687.9235674375537</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2522.045630570072</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>2522.045630570072</v>
       </c>
       <c r="W8" t="n">
-        <v>1696.368379531855</v>
+        <v>2521.230580021509</v>
       </c>
       <c r="X8" t="n">
-        <v>1681.26632015157</v>
+        <v>2506.128520641224</v>
       </c>
       <c r="Y8" t="n">
-        <v>1677.020600491627</v>
+        <v>2097.842396940877</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L9" t="n">
-        <v>804.6185656731816</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>473.5714734656729</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>376.2419976140245</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>376.2419976140245</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E10" t="n">
-        <v>376.2419976140245</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F10" t="n">
-        <v>199.5349435757807</v>
+        <v>193.303390838254</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>395.2818083374338</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>509.954387939391</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>930.0072868842942</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1349.676536110076</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1697.183430080417</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1410.227921950848</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1138.201517537139</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>892.8097628705518</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>665.39009218466</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2078.519710163544</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>1640.377237346967</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1204.467452521412</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>770.6927076797067</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>770.6927076797067</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>369.2948763029706</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>80.16472174618684</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>80.16472174618684</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>515.4194091991047</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1349.769701157283</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>1653.247759947044</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>1653.247759947044</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
-        <v>1653.247759947044</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O11" t="n">
-        <v>2633.427426517351</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P11" t="n">
-        <v>3461.737301350747</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q11" t="n">
-        <v>4008.236087309342</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R11" t="n">
-        <v>4008.236087309342</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>3924.584213493179</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>3924.584213493179</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>3694.864817835661</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>3332.247867769488</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>3332.247867769488</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X11" t="n">
-        <v>2913.105404348798</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2504.819280648452</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>586.3364667374797</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>479.8800055741219</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>384.7897167206752</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>290.6693020476289</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>207.2854636637905</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>121.9003739299744</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>80.16472174618684</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>106.2283949066445</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>430.7867198728568</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>634.1932735215941</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>634.1932735215941</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>1626.231705130656</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>1626.231705130656</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>1626.231705130656</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1626.231705130656</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1626.231705130656</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1743.404483224996</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1679.949045673379</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1549.770402003981</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1373.433855003949</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1174.316337065948</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>988.9935827991421</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>834.1261470380221</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>707.6403678172428</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>993.6316073838959</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="C13" t="n">
-        <v>821.0698958671209</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D13" t="n">
-        <v>655.1919030686436</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E13" t="n">
-        <v>485.4338993193808</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F13" t="n">
-        <v>308.726845281137</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G13" t="n">
-        <v>308.726845281137</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H13" t="n">
-        <v>168.8246709715115</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>80.16472174618684</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>166.7444069108767</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>441.5028614820123</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>859.7127432499734</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1319.196610430886</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1761.455413588531</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2181.124662814313</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2528.631556784655</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2696.824331648987</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2696.824331648987</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S13" t="n">
-        <v>2537.582962946983</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T13" t="n">
-        <v>2291.703516525438</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U13" t="n">
-        <v>2013.270515778544</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V13" t="n">
-        <v>1726.315007648974</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W13" t="n">
-        <v>1658.261651455362</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X13" t="n">
-        <v>1412.869896788775</v>
+        <v>1288.093404461139</v>
       </c>
       <c r="Y13" t="n">
-        <v>1185.450226102883</v>
+        <v>1060.673733775247</v>
       </c>
     </row>
     <row r="14">
@@ -5267,7 +5267,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
         <v>102.6776296436396</v>
@@ -5279,49 +5279,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>1850.083528321676</v>
+        <v>2412.031452783383</v>
       </c>
       <c r="M14" t="n">
-        <v>3007.131363532227</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="N14" t="n">
-        <v>4132.862346968674</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="O14" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
         <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X14" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5358,22 +5358,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>1107.588885023173</v>
+        <v>828.6046571760505</v>
       </c>
       <c r="P15" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q15" t="n">
         <v>1648.327823655249</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>811.7546776883914</v>
+        <v>982.1554751127505</v>
       </c>
       <c r="C16" t="n">
-        <v>811.7546776883914</v>
+        <v>809.5937635959755</v>
       </c>
       <c r="D16" t="n">
-        <v>645.8766848899141</v>
+        <v>643.7157707974982</v>
       </c>
       <c r="E16" t="n">
-        <v>533.2191185085204</v>
+        <v>473.9577670482354</v>
       </c>
       <c r="F16" t="n">
-        <v>356.5120644702766</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G16" t="n">
-        <v>190.9207894961043</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H16" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
         <v>102.2608402707796</v>
@@ -5458,28 +5458,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T16" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U16" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V16" t="n">
-        <v>1748.411126173566</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W16" t="n">
-        <v>1476.384721759858</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X16" t="n">
-        <v>1230.99296709327</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y16" t="n">
-        <v>1003.573296407379</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
         <v>1654.847790009657</v>
@@ -5501,13 +5501,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771602</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004241</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436403</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5519,46 +5519,46 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2446.925785934734</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M17" t="n">
-        <v>2588.899621423627</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5613,7 +5613,7 @@
         <v>1133.616358467827</v>
       </c>
       <c r="Q18" t="n">
-        <v>1674.355297099902</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>915.9519976190925</v>
+        <v>1015.727725908489</v>
       </c>
       <c r="C19" t="n">
-        <v>743.3902861023174</v>
+        <v>843.1660143917137</v>
       </c>
       <c r="D19" t="n">
-        <v>577.5122933038401</v>
+        <v>677.2880215932364</v>
       </c>
       <c r="E19" t="n">
-        <v>407.7542895545774</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="F19" t="n">
-        <v>407.7542895545774</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G19" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5695,28 +5695,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>1852.608446104267</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W19" t="n">
-        <v>1580.582041690559</v>
+        <v>1680.357769979955</v>
       </c>
       <c r="X19" t="n">
-        <v>1335.190287023971</v>
+        <v>1434.966015313368</v>
       </c>
       <c r="Y19" t="n">
-        <v>1107.77061633808</v>
+        <v>1207.546344627476</v>
       </c>
     </row>
     <row r="20">
@@ -5726,16 +5726,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
         <v>793.2056155771595</v>
@@ -5753,49 +5753,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1612.575493976557</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="M20" t="n">
-        <v>2769.623329187108</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N20" t="n">
-        <v>3895.354312623555</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>4875.533979193861</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
-        <v>4875.533979193861</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1017.756527079655</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C22" t="n">
-        <v>845.1948155628801</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D22" t="n">
-        <v>679.3168227644028</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E22" t="n">
-        <v>533.2191185085204</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F22" t="n">
-        <v>356.5120644702766</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>190.9207894961043</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
         <v>190.9207894961043</v>
@@ -5935,25 +5935,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U22" t="n">
-        <v>2013.948813008508</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V22" t="n">
-        <v>1726.993304878938</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W22" t="n">
-        <v>1454.96690046523</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X22" t="n">
-        <v>1209.575145798642</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y22" t="n">
-        <v>1209.575145798642</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5993,10 +5993,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6069,22 +6069,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L24" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M24" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N24" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O24" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P24" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q24" t="n">
         <v>1648.327823655249</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1015.727725908489</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C25" t="n">
-        <v>843.1660143917135</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D25" t="n">
-        <v>677.2880215932362</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E25" t="n">
-        <v>507.5300178439735</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F25" t="n">
-        <v>330.8229638057297</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057297</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
         <v>190.9207894961043</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="T25" t="n">
-        <v>2517.772683270128</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U25" t="n">
-        <v>2239.339682523233</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V25" t="n">
-        <v>1952.384174393663</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W25" t="n">
-        <v>1680.357769979955</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X25" t="n">
-        <v>1434.966015313368</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y25" t="n">
-        <v>1207.546344627476</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651791</v>
       </c>
       <c r="C26" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835214</v>
       </c>
       <c r="D26" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E26" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771611</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H26" t="n">
         <v>102.6776296436396</v>
       </c>
       <c r="I26" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>605.8694973157623</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>1680.929463568621</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>2837.977298779173</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>3963.708282215619</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R26" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S26" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T26" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U26" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V26" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X26" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136699</v>
       </c>
     </row>
     <row r="27">
@@ -6294,10 +6294,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G27" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H27" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I27" t="n">
         <v>128.3245134312372</v>
@@ -6306,22 +6306,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L27" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M27" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N27" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O27" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P27" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q27" t="n">
         <v>1648.327823655249</v>
@@ -6373,19 +6373,19 @@
         <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I28" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J28" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K28" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L28" t="n">
         <v>881.8088617745661</v>
@@ -6449,10 +6449,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H29" t="n">
         <v>102.6776296436396</v>
@@ -6470,34 +6470,34 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P29" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R29" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S29" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T29" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U29" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V29" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W29" t="n">
         <v>3782.628205257733</v>
@@ -6543,19 +6543,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>611.1385207805145</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>441.3805170312517</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>264.6734629930079</v>
       </c>
       <c r="G31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2528.900047651789</v>
+        <v>2463.487585792273</v>
       </c>
       <c r="C32" t="n">
-        <v>2090.757574835212</v>
+        <v>2041.744820388572</v>
       </c>
       <c r="D32" t="n">
-        <v>1654.847790009657</v>
+        <v>1605.835035563016</v>
       </c>
       <c r="E32" t="n">
-        <v>1221.073045167952</v>
+        <v>1185.981398660237</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>774.5136764823204</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004233</v>
+        <v>373.1158451055843</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>100.3853979616767</v>
       </c>
       <c r="I32" t="n">
-        <v>102.2608402707796</v>
+        <v>99.96860858881672</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>535.2232960417346</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>643.1277049545258</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1718.187671207385</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>2875.235506417936</v>
       </c>
       <c r="N32" t="n">
-        <v>2758.053686176683</v>
+        <v>4000.966489854383</v>
       </c>
       <c r="O32" t="n">
-        <v>3738.23335274699</v>
+        <v>4000.966489854383</v>
       </c>
       <c r="P32" t="n">
-        <v>4566.543227580386</v>
+        <v>4829.276364687779</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4829.276364687779</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.04201353898</v>
+        <v>4998.430429440836</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722817</v>
+        <v>4914.778555624673</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595856</v>
+        <v>4694.711328497711</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912873</v>
+        <v>4435.489025814728</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.483659846699</v>
+        <v>4072.872075748554</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257733</v>
+        <v>3684.416328572464</v>
       </c>
       <c r="X32" t="n">
-        <v>3363.485741837043</v>
+        <v>3281.673572564651</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136697</v>
+        <v>2889.78715627718</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>608.4325852620724</v>
+        <v>606.1403535801095</v>
       </c>
       <c r="C33" t="n">
-        <v>501.9761240987147</v>
+        <v>499.6838924167518</v>
       </c>
       <c r="D33" t="n">
-        <v>406.885835245268</v>
+        <v>404.5936035633051</v>
       </c>
       <c r="E33" t="n">
-        <v>312.7654205722217</v>
+        <v>310.4731888902588</v>
       </c>
       <c r="F33" t="n">
-        <v>229.3815821883833</v>
+        <v>227.0893505064204</v>
       </c>
       <c r="G33" t="n">
-        <v>143.9964924545671</v>
+        <v>141.7042607726042</v>
       </c>
       <c r="H33" t="n">
-        <v>102.2608402707796</v>
+        <v>99.96860858881672</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2970399865835</v>
+        <v>126.0322817492743</v>
       </c>
       <c r="J33" t="n">
-        <v>426.8553649527958</v>
+        <v>450.5906067154866</v>
       </c>
       <c r="K33" t="n">
-        <v>1107.588885023173</v>
+        <v>1131.324126785864</v>
       </c>
       <c r="L33" t="n">
-        <v>1107.588885023173</v>
+        <v>1131.324126785864</v>
       </c>
       <c r="M33" t="n">
-        <v>1107.588885023173</v>
+        <v>1131.324126785864</v>
       </c>
       <c r="N33" t="n">
-        <v>1107.588885023173</v>
+        <v>1131.324126785864</v>
       </c>
       <c r="O33" t="n">
-        <v>1107.588885023173</v>
+        <v>1131.324126785864</v>
       </c>
       <c r="P33" t="n">
-        <v>1107.588885023173</v>
+        <v>1131.324126785864</v>
       </c>
       <c r="Q33" t="n">
-        <v>1648.327823655249</v>
+        <v>1646.035591973286</v>
       </c>
       <c r="R33" t="n">
-        <v>1765.500601749588</v>
+        <v>1763.208370067626</v>
       </c>
       <c r="S33" t="n">
-        <v>1702.045164197971</v>
+        <v>1699.752932516009</v>
       </c>
       <c r="T33" t="n">
-        <v>1571.866520528573</v>
+        <v>1569.57428884661</v>
       </c>
       <c r="U33" t="n">
-        <v>1395.529973528541</v>
+        <v>1393.237741846579</v>
       </c>
       <c r="V33" t="n">
-        <v>1196.412455590541</v>
+        <v>1194.120223908578</v>
       </c>
       <c r="W33" t="n">
-        <v>1011.089701323735</v>
+        <v>1008.797469641772</v>
       </c>
       <c r="X33" t="n">
-        <v>856.2222655626148</v>
+        <v>853.9300338806519</v>
       </c>
       <c r="Y33" t="n">
-        <v>729.7364863418355</v>
+        <v>727.4442546598726</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1066.521048992528</v>
+        <v>1064.228817310565</v>
       </c>
       <c r="C34" t="n">
-        <v>910.3590448886291</v>
+        <v>908.0668132066662</v>
       </c>
       <c r="D34" t="n">
-        <v>760.880759503028</v>
+        <v>758.5885278210651</v>
       </c>
       <c r="E34" t="n">
-        <v>607.5224631666413</v>
+        <v>605.2302314846785</v>
       </c>
       <c r="F34" t="n">
-        <v>447.2151165412736</v>
+        <v>444.9228848593108</v>
       </c>
       <c r="G34" t="n">
-        <v>298.0235489799774</v>
+        <v>295.7313172980146</v>
       </c>
       <c r="H34" t="n">
-        <v>174.5210820832281</v>
+        <v>172.2288504012653</v>
       </c>
       <c r="I34" t="n">
-        <v>102.2608402707796</v>
+        <v>99.96860858881672</v>
       </c>
       <c r="J34" t="n">
-        <v>204.9138786708293</v>
+        <v>202.6216469888665</v>
       </c>
       <c r="K34" t="n">
-        <v>495.7456864773249</v>
+        <v>493.4534547953619</v>
       </c>
       <c r="L34" t="n">
-        <v>930.0289214806457</v>
+        <v>927.736689798683</v>
       </c>
       <c r="M34" t="n">
-        <v>1405.586141896919</v>
+        <v>1403.293910214956</v>
       </c>
       <c r="N34" t="n">
-        <v>1863.918298289923</v>
+        <v>1861.62606660796</v>
       </c>
       <c r="O34" t="n">
-        <v>2299.660900751065</v>
+        <v>2297.368669069102</v>
       </c>
       <c r="P34" t="n">
-        <v>2663.241147956767</v>
+        <v>2660.948916274803</v>
       </c>
       <c r="Q34" t="n">
-        <v>2847.507276056459</v>
+        <v>2845.215044374495</v>
       </c>
       <c r="R34" t="n">
-        <v>2842.489162174707</v>
+        <v>2840.196930492743</v>
       </c>
       <c r="S34" t="n">
-        <v>2699.647500885579</v>
+        <v>2697.355269203616</v>
       </c>
       <c r="T34" t="n">
-        <v>2470.16776187691</v>
+        <v>2467.875530194947</v>
       </c>
       <c r="U34" t="n">
-        <v>2208.134468542892</v>
+        <v>2205.842236860929</v>
       </c>
       <c r="V34" t="n">
-        <v>1937.578667826198</v>
+        <v>1935.286436144235</v>
       </c>
       <c r="W34" t="n">
-        <v>1681.951970825366</v>
+        <v>1679.659739143403</v>
       </c>
       <c r="X34" t="n">
-        <v>1452.959923571655</v>
+        <v>1450.667691889691</v>
       </c>
       <c r="Y34" t="n">
-        <v>1241.939960298639</v>
+        <v>1239.647728616676</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2425.39087720671</v>
+        <v>2425.390877206711</v>
       </c>
       <c r="C35" t="n">
         <v>2003.64811180301</v>
       </c>
       <c r="D35" t="n">
-        <v>1584.13803439033</v>
+        <v>1584.138034390331</v>
       </c>
       <c r="E35" t="n">
         <v>1166.762996961502</v>
@@ -6947,22 +6947,22 @@
         <v>2442.231649339773</v>
       </c>
       <c r="N35" t="n">
-        <v>2442.231649339773</v>
+        <v>2523.346856428596</v>
       </c>
       <c r="O35" t="n">
-        <v>3422.411315910079</v>
+        <v>3503.526522998903</v>
       </c>
       <c r="P35" t="n">
-        <v>4250.721190743476</v>
+        <v>4331.836397832299</v>
       </c>
       <c r="Q35" t="n">
-        <v>4797.21997670207</v>
+        <v>4878.335183790893</v>
       </c>
       <c r="R35" t="n">
         <v>4878.335183790893</v>
       </c>
       <c r="S35" t="n">
-        <v>4811.083017387607</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T35" t="n">
         <v>4607.415497673521</v>
@@ -6971,7 +6971,7 @@
         <v>4364.592902403414</v>
       </c>
       <c r="V35" t="n">
-        <v>4018.375659750116</v>
+        <v>4018.375659750117</v>
       </c>
       <c r="W35" t="n">
         <v>3629.919912574026</v>
@@ -7017,22 +7017,22 @@
         <v>448.1887018024878</v>
       </c>
       <c r="K36" t="n">
-        <v>1102.894748428211</v>
+        <v>1128.922221872865</v>
       </c>
       <c r="L36" t="n">
-        <v>1102.894748428211</v>
+        <v>1128.922221872865</v>
       </c>
       <c r="M36" t="n">
-        <v>1102.894748428211</v>
+        <v>1128.922221872865</v>
       </c>
       <c r="N36" t="n">
-        <v>1102.894748428211</v>
+        <v>1128.922221872865</v>
       </c>
       <c r="O36" t="n">
-        <v>1102.894748428211</v>
+        <v>1128.922221872865</v>
       </c>
       <c r="P36" t="n">
-        <v>1102.894748428211</v>
+        <v>1128.922221872865</v>
       </c>
       <c r="Q36" t="n">
         <v>1643.633687060287</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1061.826912397566</v>
+        <v>1061.826912397567</v>
       </c>
       <c r="C37" t="n">
-        <v>905.6649082936674</v>
+        <v>905.6649082936681</v>
       </c>
       <c r="D37" t="n">
-        <v>756.1866229080662</v>
+        <v>756.186622908067</v>
       </c>
       <c r="E37" t="n">
-        <v>602.8283265716796</v>
+        <v>602.82832657168</v>
       </c>
       <c r="F37" t="n">
-        <v>442.520979946312</v>
+        <v>442.5209799463123</v>
       </c>
       <c r="G37" t="n">
         <v>293.3294123850158</v>
@@ -7117,28 +7117,28 @@
         <v>2842.813139461496</v>
       </c>
       <c r="R37" t="n">
-        <v>2837.795025579744</v>
+        <v>2837.795025579745</v>
       </c>
       <c r="S37" t="n">
-        <v>2694.953364290617</v>
+        <v>2694.953364290618</v>
       </c>
       <c r="T37" t="n">
-        <v>2465.473625281948</v>
+        <v>2465.473625281949</v>
       </c>
       <c r="U37" t="n">
-        <v>2203.440331947929</v>
+        <v>2203.440331947931</v>
       </c>
       <c r="V37" t="n">
-        <v>1932.884531231236</v>
+        <v>1932.884531231237</v>
       </c>
       <c r="W37" t="n">
-        <v>1677.257834230404</v>
+        <v>1677.257834230405</v>
       </c>
       <c r="X37" t="n">
-        <v>1448.265786976693</v>
+        <v>1448.265786976694</v>
       </c>
       <c r="Y37" t="n">
-        <v>1237.245823703677</v>
+        <v>1237.245823703678</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2425.39087720671</v>
       </c>
       <c r="C38" t="n">
-        <v>2003.64811180301</v>
+        <v>2003.648111803009</v>
       </c>
       <c r="D38" t="n">
         <v>1584.13803439033</v>
@@ -7160,16 +7160,16 @@
         <v>1166.762996961501</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835855</v>
+        <v>755.2952747835848</v>
       </c>
       <c r="G38" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J38" t="n">
         <v>532.8213911287357</v>
@@ -7181,28 +7181,28 @@
         <v>2442.231649339773</v>
       </c>
       <c r="M38" t="n">
-        <v>2523.346856428595</v>
+        <v>3599.279484550324</v>
       </c>
       <c r="N38" t="n">
-        <v>2523.346856428595</v>
+        <v>4725.010467986771</v>
       </c>
       <c r="O38" t="n">
-        <v>3503.526522998902</v>
+        <v>4725.010467986771</v>
       </c>
       <c r="P38" t="n">
-        <v>4331.836397832298</v>
+        <v>4725.010467986771</v>
       </c>
       <c r="Q38" t="n">
-        <v>4878.335183790892</v>
+        <v>4725.010467986771</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790892</v>
+        <v>4878.335183790893</v>
       </c>
       <c r="S38" t="n">
         <v>4811.083017387606</v>
       </c>
       <c r="T38" t="n">
-        <v>4607.41549767352</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U38" t="n">
         <v>4364.592902403413</v>
@@ -7245,28 +7245,28 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="I39" t="n">
-        <v>123.6303768362754</v>
+        <v>123.6303768362755</v>
       </c>
       <c r="J39" t="n">
         <v>448.1887018024878</v>
       </c>
       <c r="K39" t="n">
-        <v>1102.894748428211</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="L39" t="n">
-        <v>1102.894748428211</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="M39" t="n">
-        <v>1102.894748428211</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="N39" t="n">
-        <v>1102.894748428211</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="O39" t="n">
-        <v>1102.894748428211</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="P39" t="n">
         <v>1102.894748428211</v>
@@ -7306,49 +7306,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1061.826912397566</v>
+        <v>1061.826912397567</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936669</v>
+        <v>905.6649082936677</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080658</v>
+        <v>756.1866229080665</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716791</v>
+        <v>602.8283265716798</v>
       </c>
       <c r="F40" t="n">
-        <v>442.5209799463116</v>
+        <v>442.5209799463121</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850155</v>
+        <v>293.3294123850159</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882661</v>
+        <v>169.8269454882665</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J40" t="n">
-        <v>200.2197420758676</v>
+        <v>200.2197420758675</v>
       </c>
       <c r="K40" t="n">
-        <v>491.0515498823631</v>
+        <v>491.0515498823646</v>
       </c>
       <c r="L40" t="n">
-        <v>925.334784885684</v>
+        <v>925.3347848856855</v>
       </c>
       <c r="M40" t="n">
-        <v>1400.892005301957</v>
+        <v>1400.892005301958</v>
       </c>
       <c r="N40" t="n">
-        <v>1859.224161694961</v>
+        <v>1859.224161694963</v>
       </c>
       <c r="O40" t="n">
-        <v>2294.966764156103</v>
+        <v>2294.966764156104</v>
       </c>
       <c r="P40" t="n">
-        <v>2658.547011361805</v>
+        <v>2658.547011361806</v>
       </c>
       <c r="Q40" t="n">
         <v>2842.813139461497</v>
@@ -7357,25 +7357,25 @@
         <v>2837.795025579745</v>
       </c>
       <c r="S40" t="n">
-        <v>2694.953364290617</v>
+        <v>2694.953364290618</v>
       </c>
       <c r="T40" t="n">
-        <v>2465.473625281948</v>
+        <v>2465.473625281949</v>
       </c>
       <c r="U40" t="n">
-        <v>2203.44033194793</v>
+        <v>2203.440331947931</v>
       </c>
       <c r="V40" t="n">
-        <v>1932.884531231236</v>
+        <v>1932.884531231237</v>
       </c>
       <c r="W40" t="n">
-        <v>1677.257834230404</v>
+        <v>1677.257834230405</v>
       </c>
       <c r="X40" t="n">
-        <v>1448.265786976692</v>
+        <v>1448.265786976694</v>
       </c>
       <c r="Y40" t="n">
-        <v>1237.245823703677</v>
+        <v>1237.245823703678</v>
       </c>
     </row>
     <row r="41">
@@ -7394,10 +7394,10 @@
         <v>1584.13803439033</v>
       </c>
       <c r="E41" t="n">
-        <v>1166.762996961501</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835852</v>
+        <v>755.2952747835855</v>
       </c>
       <c r="G41" t="n">
         <v>370.2971508197255</v>
@@ -7409,28 +7409,28 @@
         <v>97.56670367581785</v>
       </c>
       <c r="J41" t="n">
-        <v>532.8213911287357</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="K41" t="n">
-        <v>1367.171683086914</v>
+        <v>931.9169956339958</v>
       </c>
       <c r="L41" t="n">
-        <v>2442.231649339773</v>
+        <v>2006.976961886855</v>
       </c>
       <c r="M41" t="n">
-        <v>2442.231649339773</v>
+        <v>3164.024797097406</v>
       </c>
       <c r="N41" t="n">
-        <v>2442.231649339773</v>
+        <v>3351.656731261992</v>
       </c>
       <c r="O41" t="n">
-        <v>3422.411315910079</v>
+        <v>4331.836397832298</v>
       </c>
       <c r="P41" t="n">
-        <v>4250.721190743476</v>
+        <v>4331.836397832298</v>
       </c>
       <c r="Q41" t="n">
-        <v>4797.21997670207</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="R41" t="n">
         <v>4878.335183790892</v>
@@ -7439,22 +7439,22 @@
         <v>4811.083017387606</v>
       </c>
       <c r="T41" t="n">
-        <v>4607.41549767352</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U41" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V41" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W41" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X41" t="n">
-        <v>3227.177156566212</v>
+        <v>3227.177156566213</v>
       </c>
       <c r="Y41" t="n">
-        <v>2835.290740278741</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="42">
@@ -7491,19 +7491,19 @@
         <v>448.1887018024878</v>
       </c>
       <c r="K42" t="n">
-        <v>1102.894748428211</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="L42" t="n">
-        <v>1102.894748428211</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="M42" t="n">
-        <v>1102.894748428211</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="N42" t="n">
-        <v>1102.894748428211</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="O42" t="n">
-        <v>1102.894748428211</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="P42" t="n">
         <v>1102.894748428211</v>
@@ -7546,22 +7546,22 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936674</v>
+        <v>905.6649082936667</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080662</v>
+        <v>756.1866229080654</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716796</v>
+        <v>602.8283265716789</v>
       </c>
       <c r="F43" t="n">
-        <v>442.520979946312</v>
+        <v>442.5209799463112</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850158</v>
+        <v>293.3294123850151</v>
       </c>
       <c r="H43" t="n">
-        <v>169.8269454882664</v>
+        <v>169.8269454882661</v>
       </c>
       <c r="I43" t="n">
         <v>97.56670367581785</v>
@@ -7573,25 +7573,25 @@
         <v>491.0515498823631</v>
       </c>
       <c r="L43" t="n">
-        <v>925.3347848856844</v>
+        <v>925.334784885684</v>
       </c>
       <c r="M43" t="n">
         <v>1400.892005301957</v>
       </c>
       <c r="N43" t="n">
-        <v>1859.224161694962</v>
+        <v>1859.224161694961</v>
       </c>
       <c r="O43" t="n">
         <v>2294.966764156103</v>
       </c>
       <c r="P43" t="n">
-        <v>2658.547011361805</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q43" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R43" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S43" t="n">
         <v>2694.953364290617</v>
@@ -7600,16 +7600,16 @@
         <v>2465.473625281948</v>
       </c>
       <c r="U43" t="n">
-        <v>2203.44033194793</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V43" t="n">
         <v>1932.884531231236</v>
       </c>
       <c r="W43" t="n">
-        <v>1677.257834230404</v>
+        <v>1677.257834230403</v>
       </c>
       <c r="X43" t="n">
-        <v>1448.265786976693</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y43" t="n">
         <v>1237.245823703677</v>
@@ -7625,7 +7625,7 @@
         <v>2425.39087720671</v>
       </c>
       <c r="C44" t="n">
-        <v>2003.64811180301</v>
+        <v>2003.648111803009</v>
       </c>
       <c r="D44" t="n">
         <v>1584.13803439033</v>
@@ -7634,7 +7634,7 @@
         <v>1166.762996961501</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835852</v>
+        <v>755.2952747835848</v>
       </c>
       <c r="G44" t="n">
         <v>370.2971508197255</v>
@@ -7652,22 +7652,22 @@
         <v>1367.171683086914</v>
       </c>
       <c r="L44" t="n">
-        <v>2442.231649339773</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="M44" t="n">
-        <v>2442.231649339773</v>
+        <v>1397.615872992149</v>
       </c>
       <c r="N44" t="n">
-        <v>2442.231649339773</v>
+        <v>2523.346856428595</v>
       </c>
       <c r="O44" t="n">
-        <v>3422.411315910079</v>
+        <v>3503.526522998902</v>
       </c>
       <c r="P44" t="n">
-        <v>4250.721190743476</v>
+        <v>4331.836397832298</v>
       </c>
       <c r="Q44" t="n">
-        <v>4797.21997670207</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="R44" t="n">
         <v>4878.335183790892</v>
@@ -7728,22 +7728,22 @@
         <v>448.1887018024878</v>
       </c>
       <c r="K45" t="n">
-        <v>1102.894748428211</v>
+        <v>1128.922221872865</v>
       </c>
       <c r="L45" t="n">
-        <v>1102.894748428211</v>
+        <v>1128.922221872865</v>
       </c>
       <c r="M45" t="n">
-        <v>1102.894748428211</v>
+        <v>1128.922221872865</v>
       </c>
       <c r="N45" t="n">
-        <v>1102.894748428211</v>
+        <v>1128.922221872865</v>
       </c>
       <c r="O45" t="n">
-        <v>1102.894748428211</v>
+        <v>1128.922221872865</v>
       </c>
       <c r="P45" t="n">
-        <v>1102.894748428211</v>
+        <v>1128.922221872865</v>
       </c>
       <c r="Q45" t="n">
         <v>1643.633687060287</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1061.826912397566</v>
+        <v>1061.826912397567</v>
       </c>
       <c r="C46" t="n">
-        <v>905.6649082936674</v>
+        <v>905.6649082936675</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080662</v>
+        <v>756.1866229080663</v>
       </c>
       <c r="E46" t="n">
-        <v>602.8283265716796</v>
+        <v>602.8283265716797</v>
       </c>
       <c r="F46" t="n">
         <v>442.520979946312</v>
@@ -7804,13 +7804,13 @@
         <v>97.56670367581785</v>
       </c>
       <c r="J46" t="n">
-        <v>200.2197420758674</v>
+        <v>200.2197420758676</v>
       </c>
       <c r="K46" t="n">
-        <v>491.0515498823628</v>
+        <v>491.0515498823631</v>
       </c>
       <c r="L46" t="n">
-        <v>925.3347848856838</v>
+        <v>925.334784885684</v>
       </c>
       <c r="M46" t="n">
         <v>1400.892005301957</v>
@@ -7831,10 +7831,10 @@
         <v>2837.795025579745</v>
       </c>
       <c r="S46" t="n">
-        <v>2694.953364290617</v>
+        <v>2694.953364290618</v>
       </c>
       <c r="T46" t="n">
-        <v>2465.473625281948</v>
+        <v>2465.473625281949</v>
       </c>
       <c r="U46" t="n">
         <v>2203.44033194793</v>
@@ -7849,7 +7849,7 @@
         <v>1448.265786976693</v>
       </c>
       <c r="Y46" t="n">
-        <v>1237.245823703677</v>
+        <v>1237.245823703678</v>
       </c>
     </row>
   </sheetData>
@@ -7982,25 +7982,25 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N2" t="n">
-        <v>407.152590549595</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,28 +8055,28 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>262.4693064538401</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>358.9284720888814</v>
+      </c>
+      <c r="Q3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="O3" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,19 +8134,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>33.39342414375217</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>205.1467494379689</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -8155,7 +8155,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,31 +8213,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>638.8623105833205</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>638.8623105833205</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>638.8623105833205</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>613.0496919738937</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,25 +8295,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>638.8623105833205</v>
       </c>
       <c r="L6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>358.9284720888816</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>22.45692843256211</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>308.9803326785637</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>131.4804315655613</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>236.2898988798406</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8526,19 +8526,19 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M9" t="n">
-        <v>358.9284720888814</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>226.6534083847603</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8614,13 +8614,13 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>115.8308884868254</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
@@ -8629,7 +8629,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8693,13 +8693,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>306.543493727032</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>314.2706063049995</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8769,13 +8769,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>205.4611653017549</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1002.059021827336</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8787,7 +8787,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8927,28 +8927,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>239.9071053991105</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>1050.67235666819</v>
       </c>
       <c r="M14" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9018,13 +9018,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>379.5169886652535</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9167,13 +9167,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>143.4079146352447</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9261,10 +9261,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R18" t="n">
-        <v>92.06596429261208</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,13 +9401,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -9416,10 +9416,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>69.04441372935617</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697543</v>
@@ -9641,13 +9641,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9717,7 +9717,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9735,7 +9735,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9875,25 +9875,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>69.04441372935821</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697543</v>
@@ -9954,7 +9954,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -10118,10 +10118,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10191,22 +10191,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10349,28 +10349,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>108.9943524371629</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>314.2706063049986</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.03656536949884526</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
@@ -10446,7 +10446,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>81.9345526149732</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10607,7 +10607,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>81.93455261497274</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158825</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10683,7 +10683,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10829,22 +10829,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>81.93455261497229</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>154.8734503071946</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,22 +10902,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
         <v>661.3192390158825</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
@@ -11066,22 +11066,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>189.5272062268541</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>81.93455261497184</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,22 +11139,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
         <v>661.3192390158825</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11300,13 +11300,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>30.7517069749847</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>81.93455261497184</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11394,7 +11394,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -22544,22 +22544,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>111.3870942824341</v>
+        <v>230.0980365212945</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22598,19 +22598,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>183.863355668675</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,16 +23309,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>29.20787795521056</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-9.198091796324334e-13</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>201.9333177378959</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>77.73307607587196</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>56.52943299419032</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>109.3985407791399</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,10 +23947,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>124.3589898130758</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>201.9333177378964</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24133,7 +24133,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>23.42369649844656</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24175,13 +24175,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>229.4233680290251</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24376,7 +24376,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24412,10 +24412,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>122.4480280049973</v>
       </c>
       <c r="T25" t="n">
-        <v>201.9333177378961</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24850,7 +24850,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>3.146865729424633</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>887632.9624241596</v>
+        <v>740452.7475651393</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>967779.1529784129</v>
+        <v>983182.3368093438</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>967779.1529784129</v>
+        <v>985239.2558591472</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>840486.7374890835</v>
+        <v>1002901.444894903</v>
       </c>
     </row>
     <row r="6">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1018926.239068925</v>
+        <v>1017345.826362705</v>
       </c>
     </row>
     <row r="13">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12242.14400372031</v>
+        <v>10109.0974115606</v>
       </c>
       <c r="C2" t="n">
-        <v>13403.68299726022</v>
+        <v>13403.68299726021</v>
       </c>
       <c r="D2" t="n">
         <v>13403.68299726021</v>
       </c>
       <c r="E2" t="n">
-        <v>11038.3930112741</v>
+        <v>13171.43960343381</v>
       </c>
       <c r="F2" t="n">
         <v>13171.43960343381</v>
@@ -26341,19 +26341,19 @@
         <v>13171.43960343381</v>
       </c>
       <c r="L2" t="n">
-        <v>13403.68299726022</v>
+        <v>13403.6829972602</v>
       </c>
       <c r="M2" t="n">
         <v>13403.68299726022</v>
       </c>
       <c r="N2" t="n">
+        <v>13403.68299726022</v>
+      </c>
+      <c r="O2" t="n">
         <v>13403.68299726021</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>13403.68299726022</v>
-      </c>
-      <c r="P2" t="n">
-        <v>13403.68299726021</v>
       </c>
     </row>
     <row r="3">
@@ -26366,16 +26366,16 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>69320.13118372006</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>8900.449092101751</v>
       </c>
       <c r="E3" t="n">
-        <v>172507.3700725245</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
-        <v>79138.9057047183</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,22 +26384,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-11</v>
       </c>
       <c r="J3" t="n">
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>55222.53889197377</v>
       </c>
       <c r="L3" t="n">
-        <v>12988.5682709979</v>
+        <v>12988.56827099789</v>
       </c>
       <c r="M3" t="n">
-        <v>129358.4213978837</v>
+        <v>144718.1170387506</v>
       </c>
       <c r="N3" t="n">
-        <v>67649.20027341157</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185574.3908571708</v>
+        <v>136875.4802388638</v>
       </c>
       <c r="C4" t="n">
-        <v>212093.1194372179</v>
+        <v>178390.1777075792</v>
       </c>
       <c r="D4" t="n">
-        <v>212093.119437218</v>
+        <v>173889.535266443</v>
       </c>
       <c r="E4" t="n">
-        <v>79513.37073726674</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="F4" t="n">
-        <v>94878.44464875288</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="G4" t="n">
-        <v>94878.44464875289</v>
+        <v>94878.44464875286</v>
       </c>
       <c r="H4" t="n">
-        <v>94878.44464875288</v>
+        <v>94878.44464875285</v>
       </c>
       <c r="I4" t="n">
         <v>94878.44464875289</v>
       </c>
       <c r="J4" t="n">
-        <v>94878.44464875289</v>
+        <v>94878.44464875286</v>
       </c>
       <c r="K4" t="n">
-        <v>94878.44464875289</v>
+        <v>94878.44464875286</v>
       </c>
       <c r="L4" t="n">
-        <v>100220.8024653862</v>
+        <v>103678.8250359887</v>
       </c>
       <c r="M4" t="n">
         <v>107302.2988178706</v>
       </c>
       <c r="N4" t="n">
-        <v>107302.2988178706</v>
+        <v>107302.2988178705</v>
       </c>
       <c r="O4" t="n">
-        <v>107302.2988178706</v>
+        <v>107302.2988178705</v>
       </c>
       <c r="P4" t="n">
-        <v>107302.2988178706</v>
+        <v>107302.2988178705</v>
       </c>
     </row>
     <row r="5">
@@ -26470,40 +26470,40 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>72470.42848346589</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>60925.188527102</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="K5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="L5" t="n">
-        <v>79083.15853826066</v>
+        <v>77341.06245996886</v>
       </c>
       <c r="M5" t="n">
         <v>75515.61472608973</v>
       </c>
       <c r="N5" t="n">
-        <v>75515.61472608971</v>
+        <v>75515.61472608973</v>
       </c>
       <c r="O5" t="n">
         <v>75515.61472608971</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-374948.3356503827</v>
+        <v>-328711.9301828054</v>
       </c>
       <c r="C6" t="n">
-        <v>-258114.22457718</v>
+        <v>-306777.054377505</v>
       </c>
       <c r="D6" t="n">
-        <v>-258114.2245771801</v>
+        <v>-243598.8259230423</v>
       </c>
       <c r="E6" t="n">
-        <v>-301907.5363256191</v>
+        <v>-341803.5772115441</v>
       </c>
       <c r="F6" t="n">
-        <v>-238564.1493558299</v>
+        <v>-159448.4679904942</v>
       </c>
       <c r="G6" t="n">
-        <v>-159425.2436511116</v>
+        <v>-159448.4679904942</v>
       </c>
       <c r="H6" t="n">
-        <v>-159425.2436511116</v>
+        <v>-159448.4679904942</v>
       </c>
       <c r="I6" t="n">
-        <v>-159425.2436511116</v>
+        <v>-159448.4679904943</v>
       </c>
       <c r="J6" t="n">
-        <v>-270439.7089961017</v>
+        <v>-270462.9333354845</v>
       </c>
       <c r="K6" t="n">
-        <v>-159425.2436511116</v>
+        <v>-214671.006882468</v>
       </c>
       <c r="L6" t="n">
-        <v>-178888.8462773845</v>
+        <v>-180604.7727696953</v>
       </c>
       <c r="M6" t="n">
-        <v>-298772.6519445837</v>
+        <v>-314132.3475854507</v>
       </c>
       <c r="N6" t="n">
-        <v>-237063.4308201116</v>
+        <v>-169414.2305467</v>
       </c>
       <c r="O6" t="n">
-        <v>-169414.2305467001</v>
+        <v>-169414.2305467</v>
       </c>
       <c r="P6" t="n">
         <v>-169414.2305467</v>
@@ -26704,7 +26704,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1.306541082220943e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874731</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
     </row>
     <row r="3">
@@ -26790,13 +26790,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>638.8623105833205</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1002.059021827336</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
@@ -26811,13 +26811,13 @@
         <v>1278.260503384745</v>
       </c>
       <c r="J4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="K4" t="n">
         <v>1278.260503384745</v>
       </c>
       <c r="L4" t="n">
-        <v>1278.260503384745</v>
+        <v>1249.607607360209</v>
       </c>
       <c r="M4" t="n">
         <v>1219.583795947723</v>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.329070518200751e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>214.5664530632162</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>28.65289602453643</v>
       </c>
       <c r="E4" t="n">
-        <v>577.7631643072312</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
-        <v>276.2014815574095</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201046</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>214.566453063216</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>519.0864568702094</v>
+        <v>580.7214853644027</v>
       </c>
       <c r="N4" t="n">
-        <v>276.2014815574092</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.329070518200751e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>214.5664530632162</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>28.65289602453643</v>
       </c>
       <c r="M4" t="n">
-        <v>577.7631643072312</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
-        <v>276.2014815574095</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>201.4526504560054</v>
       </c>
       <c r="E2" t="n">
-        <v>327.8364380527117</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,19 +27427,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27543,19 +27543,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -27594,16 +27594,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>148.6446480815732</v>
+        <v>44.34352099788595</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27616,10 +27616,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>94.39173300029</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>227.3625739046462</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,16 +27822,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>141.1889918333869</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>100.8476018541753</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
         <v>400</v>
       </c>
-      <c r="C8" t="n">
-        <v>9.465190568306582</v>
-      </c>
       <c r="D8" t="n">
-        <v>7.254829457195569</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>94.80435447942119</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,7 +27907,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>110.0950357534108</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -27919,7 +27919,7 @@
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,22 +28011,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>74.4799133084754</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>135.3636110865062</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -29749,22 +29749,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>13.78189685953583</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29809,13 +29809,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I35" t="n">
         <v>0.4126214791313976</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874731</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874731</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874731</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874731</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874731</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874731</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874731</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874731</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874731</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874731</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874731</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874731</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874731</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874731</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874731</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874731</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874731</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874731</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874731</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874731</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874731</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874731</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874731</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874896</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874731</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874731</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874731</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874731</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874731</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874731</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874731</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874731</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874731</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874731</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874731</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874731</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874731</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874731</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874674</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874771</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
     </row>
   </sheetData>
@@ -34702,25 +34702,25 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N2" t="n">
-        <v>407.152590549595</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>262.4693064538401</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>358.9284720888814</v>
+      </c>
+      <c r="Q3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="O3" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,19 +34854,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>33.39342414375217</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>205.1467494379689</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -34875,7 +34875,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>638.8623105833205</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>638.8623105833205</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>638.8623105833205</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>613.0496919738937</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,31 +35009,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>638.8623105833205</v>
       </c>
       <c r="L6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>358.9284720888816</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>22.45692843256211</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>308.9803326785637</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>131.4804315655613</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>236.2898988798406</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35246,19 +35246,19 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M9" t="n">
-        <v>358.9284720888814</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>226.6534083847603</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>115.8308884868254</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,22 +35410,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>306.543493727032</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>314.2706063049995</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
@@ -35489,13 +35489,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>205.4611653017549</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1002.059021827336</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35507,7 +35507,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35580,7 +35580,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35647,28 +35647,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>239.9071053991105</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>1050.67235666819</v>
       </c>
       <c r="M14" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35738,13 +35738,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>379.5169886652535</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35887,13 +35887,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>143.4079146352447</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
@@ -35981,10 +35981,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R18" t="n">
-        <v>92.06596429261208</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36121,25 +36121,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081364</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>69.04441372935617</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
         <v>170.862691669754</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36361,13 +36361,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36455,7 +36455,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36592,28 +36592,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>69.04441372935821</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>170.862691669754</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36692,7 +36692,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645586</v>
@@ -36838,10 +36838,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36905,28 +36905,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -37069,28 +37069,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>108.9943524371629</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>314.2706063049986</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.03656536949884526</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327044</v>
+        <v>687.6096162327045</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37166,7 +37166,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37239,13 +37239,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O34" t="n">
-        <v>440.1440428900421</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P34" t="n">
-        <v>367.2527749552546</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q34" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37315,19 +37315,19 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>81.9345526149732</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>81.93455261497274</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158825</v>
+        <v>687.6096162327045</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37403,7 +37403,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37549,22 +37549,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>81.93455261497229</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>154.8734503071946</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,22 +37622,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
         <v>661.3192390158825</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37701,25 +37701,25 @@
         <v>103.689937777828</v>
       </c>
       <c r="K40" t="n">
-        <v>293.7695028348439</v>
+        <v>293.7695028348455</v>
       </c>
       <c r="L40" t="n">
-        <v>438.6699343467889</v>
+        <v>438.6699343467888</v>
       </c>
       <c r="M40" t="n">
-        <v>480.3608287033061</v>
+        <v>480.360828703306</v>
       </c>
       <c r="N40" t="n">
         <v>462.9617741343479</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900421</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P40" t="n">
-        <v>367.2527749552546</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q40" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
@@ -37786,22 +37786,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>189.5272062268541</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458551</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>81.93455261497184</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,22 +37859,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
         <v>661.3192390158825</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37941,16 +37941,16 @@
         <v>293.7695028348439</v>
       </c>
       <c r="L43" t="n">
-        <v>438.6699343467892</v>
+        <v>438.6699343467889</v>
       </c>
       <c r="M43" t="n">
-        <v>480.360828703306</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N43" t="n">
         <v>462.9617741343479</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900419</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P43" t="n">
         <v>367.2527749552542</v>
@@ -38020,25 +38020,25 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>30.7517069749847</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>81.93455261497184</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>687.6096162327045</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38114,7 +38114,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>103.6899377778278</v>
+        <v>103.689937777828</v>
       </c>
       <c r="K46" t="n">
         <v>293.7695028348439</v>
@@ -38187,7 +38187,7 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O46" t="n">
-        <v>440.1440428900419</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P46" t="n">
         <v>367.2527749552542</v>
